--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1084,10 +1096,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1131,28 +1143,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1177,28 +1189,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1402,10 +1414,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1449,28 +1461,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1495,28 +1507,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1819,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1854,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1912,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2183,10 +2195,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2230,28 +2242,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2276,28 +2288,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2559,10 +2571,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2606,28 +2618,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2652,28 +2664,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2935,10 +2947,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="J97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2982,28 +2994,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3028,28 +3040,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3282,10 +3294,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3329,28 +3341,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3375,28 +3387,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3629,10 +3641,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3676,28 +3688,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3722,28 +3734,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3976,10 +3988,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4023,28 +4035,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4069,28 +4081,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4265,10 +4277,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="J143" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4312,28 +4324,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4358,28 +4370,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4554,10 +4566,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
+      <c r="J153" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K153" s="2" t="s">
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4601,28 +4613,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4647,28 +4659,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4843,10 +4855,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
+      <c r="J163" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="2" t="s">
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4890,28 +4902,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4936,28 +4948,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5103,10 +5115,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
+      <c r="J172" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5150,28 +5162,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5196,28 +5208,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5305,10 +5317,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5352,28 +5364,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5398,28 +5410,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -460,10 +508,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -507,28 +555,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="4">
+      <c r="A13" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -553,28 +601,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="4">
+      <c r="B15" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="4">
+      <c r="D15" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="4">
+      <c r="F15" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="4">
+      <c r="H15" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="4">
+      <c r="I15" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -778,10 +826,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -825,28 +873,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="4">
+      <c r="A24" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="4">
+      <c r="D24" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -871,28 +919,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="4">
+      <c r="D26" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="4">
+      <c r="I26" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1096,10 +1144,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1143,28 +1191,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="4">
+      <c r="A35" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1189,28 +1237,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="4">
+      <c r="I37" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1414,10 +1462,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1461,28 +1509,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="4">
+      <c r="A46" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1507,28 +1555,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="4">
+      <c r="D48" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="4">
+      <c r="I48" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1819,10 +1867,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J58" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1866,28 +1914,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="4">
+      <c r="A60" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1912,28 +1960,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="4">
+      <c r="C62" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="4">
+      <c r="D62" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="4">
+      <c r="I62" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2195,10 +2243,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="J71" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2242,28 +2290,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="4">
+      <c r="A73" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2288,28 +2336,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="4">
+      <c r="I75" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2571,10 +2619,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="J84" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2618,28 +2666,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2664,28 +2712,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="4">
+      <c r="I88" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2947,10 +2995,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="K97" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2994,28 +3042,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="4">
+      <c r="A99" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3040,28 +3088,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="4">
+      <c r="C101" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="4">
+      <c r="D101" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="4">
+      <c r="G101" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="4">
+      <c r="H101" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="4">
+      <c r="I101" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3294,10 +3342,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="4" t="s">
+      <c r="J109" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="4" t="s">
+      <c r="K109" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3341,28 +3389,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="4">
+      <c r="A111" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="4">
+      <c r="C111" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="4">
+      <c r="D111" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="4">
+      <c r="G111" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="4">
+      <c r="H111" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3387,28 +3435,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="4">
+      <c r="C113" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="4">
+      <c r="D113" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="4">
+      <c r="I113" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3641,10 +3689,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="4" t="s">
+      <c r="J121" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="4" t="s">
+      <c r="K121" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3688,28 +3736,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="4">
+      <c r="C123" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="4">
+      <c r="D123" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3734,28 +3782,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="4">
+      <c r="D125" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="4">
+      <c r="I125" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3988,10 +4036,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="4" t="s">
+      <c r="J133" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="4" t="s">
+      <c r="K133" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4035,28 +4083,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="4">
+      <c r="A135" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4081,28 +4129,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="4">
+      <c r="D137" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="4">
+      <c r="G137" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="4">
+      <c r="H137" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="4">
+      <c r="I137" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4277,10 +4325,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="4" t="s">
+      <c r="J143" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="4" t="s">
+      <c r="K143" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4324,28 +4372,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="4">
+      <c r="A145" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="4">
+      <c r="B145" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="4">
+      <c r="C145" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="4">
+      <c r="D145" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="4">
+      <c r="E145" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="4">
+      <c r="F145" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="4">
+      <c r="G145" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="4">
+      <c r="H145" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4370,28 +4418,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="4">
+      <c r="B147" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="4">
+      <c r="C147" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="4">
+      <c r="D147" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="4">
+      <c r="E147" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="4">
+      <c r="F147" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="4">
+      <c r="G147" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="4">
+      <c r="H147" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="4">
+      <c r="I147" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4566,10 +4614,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="4" t="s">
+      <c r="J153" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K153" s="4" t="s">
+      <c r="K153" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4613,28 +4661,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="4">
+      <c r="A155" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D155" t="s" s="4">
+      <c r="D155" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4659,28 +4707,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="4">
+      <c r="B157" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="4">
+      <c r="C157" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="4">
+      <c r="D157" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="4">
+      <c r="E157" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="4">
+      <c r="F157" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="4">
+      <c r="G157" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="4">
+      <c r="H157" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="4">
+      <c r="I157" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4855,10 +4903,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="4" t="s">
+      <c r="J163" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="4" t="s">
+      <c r="K163" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4902,28 +4950,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="4">
+      <c r="A165" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="4">
+      <c r="C165" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="4">
+      <c r="D165" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="4">
+      <c r="G165" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="4">
+      <c r="H165" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4948,28 +4996,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="4">
+      <c r="B167" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="4">
+      <c r="C167" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="4">
+      <c r="D167" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="4">
+      <c r="E167" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="4">
+      <c r="F167" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="4">
+      <c r="G167" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="4">
+      <c r="H167" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="4">
+      <c r="I167" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5115,10 +5163,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="4" t="s">
+      <c r="J172" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K172" s="4" t="s">
+      <c r="K172" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5162,28 +5210,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="4">
+      <c r="A174" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="4">
+      <c r="C174" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D174" t="s" s="4">
+      <c r="D174" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5208,28 +5256,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="4">
+      <c r="C176" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="4">
+      <c r="D176" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="4">
+      <c r="I176" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5317,10 +5365,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="4" t="s">
+      <c r="J179" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="4" t="s">
+      <c r="K179" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5364,28 +5412,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="4">
+      <c r="A181" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="4">
+      <c r="B181" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="4">
+      <c r="C181" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="4">
+      <c r="D181" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="4">
+      <c r="G181" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="4">
+      <c r="H181" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5410,28 +5458,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="4">
+      <c r="C183" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="4">
+      <c r="D183" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="4">
+      <c r="I183" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5519,10 +5567,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="4" t="s">
+      <c r="J186" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="4" t="s">
+      <c r="K186" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -508,10 +526,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -555,28 +573,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="12">
+      <c r="A13" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -601,28 +619,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="12">
+      <c r="B15" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="12">
+      <c r="D15" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="12">
+      <c r="E15" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="12">
+      <c r="F15" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="12">
+      <c r="H15" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="12">
+      <c r="I15" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -826,10 +844,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -873,28 +891,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="12">
+      <c r="A24" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="12">
+      <c r="C24" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="12">
+      <c r="D24" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -919,28 +937,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="12">
+      <c r="I26" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1144,10 +1162,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1191,28 +1209,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="12">
+      <c r="A35" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1237,28 +1255,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="12">
+      <c r="C37" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D37" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="12">
+      <c r="I37" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1462,10 +1480,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1509,28 +1527,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="12">
+      <c r="A46" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1555,28 +1573,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="12">
+      <c r="C48" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="12">
+      <c r="D48" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="12">
+      <c r="I48" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1867,10 +1885,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="K58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1914,28 +1932,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="12">
+      <c r="A60" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1960,28 +1978,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="12">
+      <c r="C62" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="12">
+      <c r="D62" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="12">
+      <c r="I62" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2243,10 +2261,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="12" t="s">
+      <c r="K71" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2290,28 +2308,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="12">
+      <c r="A73" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2336,28 +2354,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="D75" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="12">
+      <c r="I75" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2619,10 +2637,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="12" t="s">
+      <c r="J84" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="12" t="s">
+      <c r="K84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2666,28 +2684,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="12">
+      <c r="A86" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2712,28 +2730,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="12">
+      <c r="I88" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2995,10 +3013,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="12" t="s">
+      <c r="J97" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="12" t="s">
+      <c r="K97" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -3042,28 +3060,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="12">
+      <c r="A99" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3088,28 +3106,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="12">
+      <c r="C101" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="12">
+      <c r="D101" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="12">
+      <c r="F101" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="12">
+      <c r="G101" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="12">
+      <c r="I101" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3342,10 +3360,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="12" t="s">
+      <c r="J109" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="12" t="s">
+      <c r="K109" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3389,28 +3407,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="12">
+      <c r="A111" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="12">
+      <c r="C111" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="12">
+      <c r="D111" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="12">
+      <c r="F111" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3435,28 +3453,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="12">
+      <c r="C113" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="12">
+      <c r="D113" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="12">
+      <c r="I113" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3689,10 +3707,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="12" t="s">
+      <c r="J121" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="12" t="s">
+      <c r="K121" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3736,28 +3754,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="12">
+      <c r="A123" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="12">
+      <c r="C123" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="12">
+      <c r="D123" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3782,28 +3800,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="12">
+      <c r="C125" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="12">
+      <c r="D125" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="12">
+      <c r="I125" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4036,10 +4054,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="12" t="s">
+      <c r="J133" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="12" t="s">
+      <c r="K133" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4083,28 +4101,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="12">
+      <c r="A135" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4129,28 +4147,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="12">
+      <c r="B137" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C137" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D137" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="12">
+      <c r="F137" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="12">
+      <c r="G137" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="12">
+      <c r="H137" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="12">
+      <c r="I137" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4325,10 +4343,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="12" t="s">
+      <c r="J143" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="12" t="s">
+      <c r="K143" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4372,28 +4390,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="12">
+      <c r="A145" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="12">
+      <c r="B145" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="12">
+      <c r="C145" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="12">
+      <c r="D145" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="12">
+      <c r="E145" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="12">
+      <c r="F145" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="12">
+      <c r="G145" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="12">
+      <c r="H145" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4418,28 +4436,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="12">
+      <c r="B147" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="12">
+      <c r="C147" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="12">
+      <c r="D147" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="12">
+      <c r="E147" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="12">
+      <c r="F147" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="12">
+      <c r="G147" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="12">
+      <c r="H147" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="12">
+      <c r="I147" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4614,10 +4632,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="12" t="s">
+      <c r="J153" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K153" s="12" t="s">
+      <c r="K153" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4661,28 +4679,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="12">
+      <c r="A155" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="C155" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D155" t="s" s="12">
+      <c r="D155" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4707,28 +4725,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="12">
+      <c r="B157" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="12">
+      <c r="C157" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="12">
+      <c r="D157" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="12">
+      <c r="E157" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="12">
+      <c r="F157" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="12">
+      <c r="G157" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="12">
+      <c r="H157" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="12">
+      <c r="I157" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4903,10 +4921,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="12" t="s">
+      <c r="J163" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="12" t="s">
+      <c r="K163" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4950,28 +4968,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="12">
+      <c r="A165" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="12">
+      <c r="B165" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="12">
+      <c r="C165" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="12">
+      <c r="D165" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="12">
+      <c r="E165" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="12">
+      <c r="F165" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="12">
+      <c r="G165" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="12">
+      <c r="H165" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4996,28 +5014,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="12">
+      <c r="B167" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="12">
+      <c r="C167" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="12">
+      <c r="D167" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="12">
+      <c r="E167" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="12">
+      <c r="F167" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="12">
+      <c r="G167" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="12">
+      <c r="H167" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="12">
+      <c r="I167" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5163,10 +5181,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="12" t="s">
+      <c r="J172" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K172" s="12" t="s">
+      <c r="K172" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5210,28 +5228,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="12">
+      <c r="A174" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="12">
+      <c r="C174" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D174" t="s" s="12">
+      <c r="D174" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5256,28 +5274,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="12">
+      <c r="C176" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="12">
+      <c r="D176" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="12">
+      <c r="I176" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5365,10 +5383,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="12" t="s">
+      <c r="J179" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="12" t="s">
+      <c r="K179" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5412,28 +5430,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="12">
+      <c r="A181" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="12">
+      <c r="B181" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="12">
+      <c r="C181" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="12">
+      <c r="D181" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="12">
+      <c r="E181" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="12">
+      <c r="F181" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="12">
+      <c r="G181" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="12">
+      <c r="H181" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5458,28 +5476,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="12">
+      <c r="C183" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="12">
+      <c r="D183" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="12">
+      <c r="I183" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5567,10 +5585,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="12" t="s">
+      <c r="J186" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="12" t="s">
+      <c r="K186" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
